--- a/20220421_algo_v2_9/algo_results/perf_result/hybrid_cf.xlsx
+++ b/20220421_algo_v2_9/algo_results/perf_result/hybrid_cf.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008566403812333352</v>
+        <v>0.008633180391209853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008620689655172414</v>
+        <v>0.009875948452366614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008593546733752882</v>
+        <v>0.009254564421788233</v>
       </c>
       <c r="E2" t="n">
-        <v>2.714292141953092e-05</v>
+        <v>0.0006213840305783801</v>
       </c>
     </row>
     <row r="3">
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2483552631578947</v>
+        <v>0.2395309882747069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2504118616144975</v>
+        <v>0.2710743801652892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2493835623861961</v>
+        <v>0.255302684219998</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001028299228301388</v>
+        <v>0.01577169594529118</v>
       </c>
     </row>
     <row r="4">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01656155744447491</v>
+        <v>0.01666569547229183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01666758045945501</v>
+        <v>0.01905757945499971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01661456895196496</v>
+        <v>0.01786163746364577</v>
       </c>
       <c r="E4" t="n">
-        <v>5.301150749005036e-05</v>
+        <v>0.001195941991353939</v>
       </c>
     </row>
   </sheetData>
